--- a/Docs/Testing (TES)/Test_view.xlsx
+++ b/Docs/Testing (TES)/Test_view.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20055" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Тестовые ситуации" sheetId="1" r:id="rId1"/>
+    <sheet name="Тестирование" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>N</t>
   </si>
@@ -27,6 +27,9 @@
     <t>Test description</t>
   </si>
   <si>
+    <t>Test steps</t>
+  </si>
+  <si>
     <t>Product</t>
   </si>
   <si>
@@ -43,9 +46,6 @@
   </si>
   <si>
     <t>System</t>
-  </si>
-  <si>
-    <t>Test steps</t>
   </si>
 </sst>
 </file>
@@ -82,37 +82,112 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="19">
+    <dxf>
+      <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="B1:K5" totalsRowShown="0">
-  <autoFilter ref="B1:K5"/>
-  <tableColumns count="10">
-    <tableColumn id="1" name="N"/>
-    <tableColumn id="2" name="Test ID"/>
-    <tableColumn id="3" name="Test description"/>
-    <tableColumn id="4" name="Product"/>
-    <tableColumn id="5" name="Requirement"/>
-    <tableColumn id="6" name="Tester name"/>
-    <tableColumn id="7" name="Test steps"/>
-    <tableColumn id="8" name="Result"/>
-    <tableColumn id="9" name="Ticket ID"/>
-    <tableColumn id="10" name="System"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица1" displayName="Таблица1" ref="A1:F2" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:F2"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="N" dataDxfId="7"/>
+    <tableColumn id="2" name="Test ID" dataDxfId="6"/>
+    <tableColumn id="3" name="Test description" dataDxfId="5"/>
+    <tableColumn id="4" name="Product" dataDxfId="4"/>
+    <tableColumn id="5" name="Requirement" dataDxfId="3"/>
+    <tableColumn id="7" name="Test steps" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I2" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:I2"/>
+  <tableColumns count="9">
+    <tableColumn id="2" name="N" dataDxfId="18"/>
+    <tableColumn id="3" name="Test ID" dataDxfId="17"/>
+    <tableColumn id="5" name="Product" dataDxfId="16"/>
+    <tableColumn id="6" name="Requirement" dataDxfId="15"/>
+    <tableColumn id="7" name="Tester name" dataDxfId="14"/>
+    <tableColumn id="8" name="Test steps" dataDxfId="13"/>
+    <tableColumn id="9" name="Result" dataDxfId="12"/>
+    <tableColumn id="10" name="Ticket ID" dataDxfId="11"/>
+    <tableColumn id="11" name="System" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -403,56 +478,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:K1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B1:K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" customWidth="1"/>
-    <col min="5" max="6" width="23.5703125" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" customWidth="1"/>
-    <col min="8" max="8" width="43.42578125" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" customWidth="1"/>
-    <col min="11" max="11" width="22" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -465,13 +540,69 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
